--- a/layout_tipo_10.xlsx
+++ b/layout_tipo_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -508,7 +508,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -532,7 +532,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -628,7 +628,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -652,7 +652,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -824,30 +824,6 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NFE10-FILLER</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>47</v>
-      </c>
-      <c r="C17" t="n">
-        <v>494</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TEXTO</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
